--- a/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2_vs_AGEO2var_5.xlsx
+++ b/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2_vs_AGEO2var_5.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CEC2017" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No1</t>
   </si>
@@ -51,26 +51,21 @@
   <si>
     <t>Std2</t>
   </si>
-  <si>
-    <t>1 vs 28</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,356 +73,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,324 +108,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1050,24 +414,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="1"/>
-    <col min="2" max="6" width="9.14166666666667" style="2"/>
-    <col min="7" max="7" width="9.14166666666667" style="1"/>
-    <col min="8" max="12" width="9.14166666666667" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1113,75 +475,75 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2450000000</v>
+        <v>1240000000</v>
       </c>
       <c r="C2" s="2">
-        <v>9370000000</v>
+        <v>12600000000</v>
       </c>
       <c r="D2" s="2">
-        <v>5030000000</v>
+        <v>3920000000</v>
       </c>
       <c r="E2" s="2">
-        <v>5250000000</v>
+        <v>4220000000</v>
       </c>
       <c r="F2" s="2">
-        <v>1730000000</v>
+        <v>2050000000</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>531000000</v>
+        <v>242000000</v>
       </c>
       <c r="I2" s="4">
-        <v>5130000000</v>
+        <v>2820000000</v>
       </c>
       <c r="J2" s="4">
-        <v>2540000000</v>
+        <v>1250000000</v>
       </c>
       <c r="K2" s="4">
-        <v>2390000000</v>
+        <v>1310000000</v>
       </c>
       <c r="L2" s="4">
-        <v>1210000000</v>
+        <v>652000000</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>149000</v>
+      <c r="B3" s="4">
+        <v>89200</v>
       </c>
       <c r="C3" s="2">
-        <v>326000</v>
+        <v>306000</v>
       </c>
       <c r="D3" s="2">
-        <v>218000</v>
+        <v>193000</v>
       </c>
       <c r="E3" s="2">
-        <v>224000</v>
+        <v>195000</v>
       </c>
       <c r="F3" s="2">
-        <v>51500</v>
+        <v>48900</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
-        <v>108000</v>
+      <c r="H3" s="2">
+        <v>93400</v>
       </c>
       <c r="I3" s="4">
-        <v>258000</v>
+        <v>257000</v>
       </c>
       <c r="J3" s="4">
-        <v>202000</v>
+        <v>164000</v>
       </c>
       <c r="K3" s="4">
-        <v>192000</v>
+        <v>165000</v>
       </c>
       <c r="L3" s="4">
-        <v>36300</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1189,37 +551,37 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2">
-        <v>939</v>
+        <v>880</v>
       </c>
       <c r="D4" s="2">
-        <v>421</v>
+        <v>342</v>
       </c>
       <c r="E4" s="2">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="F4" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I4" s="4">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="J4" s="4">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="K4" s="4">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="L4" s="4">
-        <v>55.2</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1227,37 +589,37 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>94.1</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="D5" s="2">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E5" s="2">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="F5" s="2">
-        <v>51.5</v>
+        <v>35.1</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>76.9</v>
+        <v>61.4</v>
       </c>
       <c r="I5" s="4">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="J5" s="4">
-        <v>116</v>
+        <v>96.2</v>
       </c>
       <c r="K5" s="4">
-        <v>112</v>
+        <v>95.5</v>
       </c>
       <c r="L5" s="4">
-        <v>17.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1265,37 +627,37 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>6.37</v>
+        <v>4.43</v>
       </c>
       <c r="C6" s="2">
-        <v>39.2</v>
+        <v>20.6</v>
       </c>
       <c r="D6" s="2">
-        <v>14.9</v>
+        <v>10.4</v>
       </c>
       <c r="E6" s="2">
-        <v>16.9</v>
+        <v>10.6</v>
       </c>
       <c r="F6" s="2">
-        <v>7.85</v>
+        <v>3.87</v>
       </c>
       <c r="G6" s="1">
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="I6" s="4">
-        <v>7.79</v>
+        <v>5.42</v>
       </c>
       <c r="J6" s="4">
-        <v>4.13</v>
+        <v>2.85</v>
       </c>
       <c r="K6" s="4">
-        <v>4.08</v>
+        <v>2.97</v>
       </c>
       <c r="L6" s="4">
-        <v>1.64</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1303,37 +665,37 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2">
-        <v>583</v>
+        <v>431</v>
       </c>
       <c r="D7" s="2">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="E7" s="2">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="F7" s="2">
-        <v>85.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G7" s="1">
         <v>7</v>
       </c>
       <c r="H7" s="4">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I7" s="4">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="J7" s="4">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="K7" s="4">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="L7" s="4">
-        <v>30.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1341,37 +703,37 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>102</v>
+        <v>92.5</v>
       </c>
       <c r="C8" s="2">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="D8" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F8" s="2">
-        <v>46.1</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>8</v>
       </c>
       <c r="H8" s="4">
-        <v>58.1</v>
+        <v>73.2</v>
       </c>
       <c r="I8" s="4">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="J8" s="4">
-        <v>116</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="K8" s="4">
-        <v>112</v>
+        <v>98.3</v>
       </c>
       <c r="L8" s="4">
-        <v>18</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1379,75 +741,75 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>3460</v>
+        <v>1780</v>
       </c>
       <c r="C9" s="2">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="D9" s="2">
-        <v>9050</v>
+        <v>5380</v>
       </c>
       <c r="E9" s="2">
-        <v>8970</v>
+        <v>6080</v>
       </c>
       <c r="F9" s="2">
-        <v>3160</v>
+        <v>2440</v>
       </c>
       <c r="G9" s="1">
         <v>9</v>
       </c>
       <c r="H9" s="4">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="I9" s="4">
-        <v>1130</v>
+        <v>745</v>
       </c>
       <c r="J9" s="4">
-        <v>717</v>
+        <v>316</v>
       </c>
       <c r="K9" s="4">
-        <v>681</v>
+        <v>380</v>
       </c>
       <c r="L9" s="4">
-        <v>230</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>2870</v>
+      <c r="B10" s="2">
+        <v>2500</v>
       </c>
       <c r="C10" s="2">
-        <v>5090</v>
+        <v>4570</v>
       </c>
       <c r="D10" s="2">
-        <v>4060</v>
+        <v>3610</v>
       </c>
       <c r="E10" s="2">
-        <v>4060</v>
+        <v>3630</v>
       </c>
       <c r="F10" s="2">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
-        <v>3190</v>
+      <c r="H10" s="4">
+        <v>2180</v>
       </c>
       <c r="I10" s="4">
-        <v>4640</v>
-      </c>
-      <c r="J10" s="4">
-        <v>3810</v>
+        <v>4410</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3610</v>
       </c>
       <c r="K10" s="4">
-        <v>3830</v>
+        <v>3520</v>
       </c>
       <c r="L10" s="4">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1455,37 +817,37 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>2290</v>
+        <v>1070</v>
       </c>
       <c r="C11" s="2">
-        <v>26700</v>
+        <v>29700</v>
       </c>
       <c r="D11" s="2">
-        <v>12900</v>
+        <v>11600</v>
       </c>
       <c r="E11" s="2">
-        <v>13500</v>
+        <v>11900</v>
       </c>
       <c r="F11" s="2">
-        <v>6510</v>
+        <v>8250</v>
       </c>
       <c r="G11" s="1">
         <v>11</v>
       </c>
       <c r="H11" s="4">
-        <v>1470</v>
+        <v>748</v>
       </c>
       <c r="I11" s="4">
-        <v>9030</v>
+        <v>6890</v>
       </c>
       <c r="J11" s="4">
-        <v>4960</v>
+        <v>3420</v>
       </c>
       <c r="K11" s="4">
-        <v>4870</v>
+        <v>3150</v>
       </c>
       <c r="L11" s="4">
-        <v>1890</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1493,37 +855,37 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>17300000</v>
+        <v>46800000</v>
       </c>
       <c r="C12" s="2">
-        <v>2230000000</v>
+        <v>3390000000</v>
       </c>
       <c r="D12" s="2">
-        <v>395000000</v>
+        <v>434000000</v>
       </c>
       <c r="E12" s="2">
-        <v>614000000</v>
+        <v>658000000</v>
       </c>
       <c r="F12" s="2">
-        <v>629000000</v>
+        <v>691000000</v>
       </c>
       <c r="G12" s="1">
         <v>12</v>
       </c>
       <c r="H12" s="2">
-        <v>62600000</v>
+        <v>64100000</v>
       </c>
       <c r="I12" s="4">
-        <v>587000000</v>
+        <v>375000000</v>
       </c>
       <c r="J12" s="4">
-        <v>289000000</v>
+        <v>138000000</v>
       </c>
       <c r="K12" s="4">
-        <v>269000000</v>
+        <v>148000000</v>
       </c>
       <c r="L12" s="4">
-        <v>130000000</v>
+        <v>59000000</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1531,37 +893,37 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>29300000</v>
+        <v>9320000</v>
       </c>
       <c r="C13" s="2">
-        <v>6670000000</v>
+        <v>7280000000</v>
       </c>
       <c r="D13" s="2">
-        <v>706000000</v>
+        <v>732000000</v>
       </c>
       <c r="E13" s="2">
-        <v>1880000000</v>
+        <v>1520000000</v>
       </c>
       <c r="F13" s="2">
-        <v>2020000000</v>
+        <v>1720000000</v>
       </c>
       <c r="G13" s="1">
         <v>13</v>
       </c>
       <c r="H13" s="4">
-        <v>635000</v>
+        <v>2300000</v>
       </c>
       <c r="I13" s="4">
-        <v>593000000</v>
+        <v>139000000</v>
       </c>
       <c r="J13" s="4">
-        <v>135000000</v>
+        <v>27500000</v>
       </c>
       <c r="K13" s="4">
-        <v>167000000</v>
+        <v>35400000</v>
       </c>
       <c r="L13" s="4">
-        <v>161000000</v>
+        <v>35600000</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1569,37 +931,37 @@
         <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>92700</v>
+        <v>113000</v>
       </c>
       <c r="C14" s="2">
-        <v>27500000</v>
+        <v>61300000</v>
       </c>
       <c r="D14" s="2">
-        <v>6810000</v>
+        <v>3910000</v>
       </c>
       <c r="E14" s="2">
-        <v>7690000</v>
+        <v>9110000</v>
       </c>
       <c r="F14" s="2">
-        <v>6620000</v>
+        <v>11300000</v>
       </c>
       <c r="G14" s="1">
         <v>14</v>
       </c>
       <c r="H14" s="2">
-        <v>285000</v>
+        <v>327000</v>
       </c>
       <c r="I14" s="4">
-        <v>7100000</v>
+        <v>4010000</v>
       </c>
       <c r="J14" s="4">
-        <v>2790000</v>
+        <v>1220000</v>
       </c>
       <c r="K14" s="4">
-        <v>2830000</v>
+        <v>1380000</v>
       </c>
       <c r="L14" s="4">
-        <v>2050000</v>
+        <v>824000</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1607,37 +969,37 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>57200</v>
+        <v>15800</v>
       </c>
       <c r="C15" s="2">
-        <v>3220000000</v>
+        <v>3630000000</v>
       </c>
       <c r="D15" s="2">
-        <v>146000000</v>
+        <v>108000000</v>
       </c>
       <c r="E15" s="2">
-        <v>392000000</v>
+        <v>414000000</v>
       </c>
       <c r="F15" s="2">
-        <v>652000000</v>
+        <v>791000000</v>
       </c>
       <c r="G15" s="1">
         <v>15</v>
       </c>
       <c r="H15" s="4">
-        <v>15800</v>
+        <v>6700</v>
       </c>
       <c r="I15" s="4">
-        <v>154000000</v>
+        <v>84700000</v>
       </c>
       <c r="J15" s="4">
-        <v>5570000</v>
+        <v>636000</v>
       </c>
       <c r="K15" s="4">
-        <v>21500000</v>
+        <v>4690000</v>
       </c>
       <c r="L15" s="4">
-        <v>37900000</v>
+        <v>13100000</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1645,37 +1007,37 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>867</v>
+        <v>646</v>
       </c>
       <c r="C16" s="2">
-        <v>2130</v>
+        <v>1940</v>
       </c>
       <c r="D16" s="2">
-        <v>1660</v>
+        <v>1430</v>
       </c>
       <c r="E16" s="2">
-        <v>1630</v>
+        <v>1460</v>
       </c>
       <c r="F16" s="2">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="G16" s="1">
         <v>16</v>
       </c>
       <c r="H16" s="4">
-        <v>750</v>
+        <v>539</v>
       </c>
       <c r="I16" s="4">
-        <v>1820</v>
+        <v>1580</v>
       </c>
       <c r="J16" s="4">
-        <v>1350</v>
+        <v>1030</v>
       </c>
       <c r="K16" s="4">
-        <v>1290</v>
+        <v>1040</v>
       </c>
       <c r="L16" s="4">
-        <v>301</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1683,37 +1045,37 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>388</v>
+        <v>228</v>
       </c>
       <c r="C17" s="2">
-        <v>1590</v>
+        <v>1540</v>
       </c>
       <c r="D17" s="2">
-        <v>1010</v>
+        <v>770</v>
       </c>
       <c r="E17" s="2">
-        <v>929</v>
+        <v>801</v>
       </c>
       <c r="F17" s="2">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="G17" s="1">
         <v>17</v>
       </c>
       <c r="H17" s="4">
-        <v>199</v>
+        <v>88.2</v>
       </c>
       <c r="I17" s="4">
-        <v>774</v>
+        <v>643</v>
       </c>
       <c r="J17" s="4">
-        <v>494</v>
+        <v>406</v>
       </c>
       <c r="K17" s="4">
-        <v>491</v>
+        <v>380</v>
       </c>
       <c r="L17" s="4">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1721,75 +1083,75 @@
         <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>934000</v>
+        <v>206000</v>
       </c>
       <c r="C18" s="2">
-        <v>162000000</v>
+        <v>72100000</v>
       </c>
       <c r="D18" s="4">
-        <v>17900000</v>
+        <v>4160000</v>
       </c>
       <c r="E18" s="2">
-        <v>29700000</v>
+        <v>11000000</v>
       </c>
       <c r="F18" s="2">
-        <v>35200000</v>
+        <v>14900000</v>
       </c>
       <c r="G18" s="1">
         <v>18</v>
       </c>
       <c r="H18" s="2">
-        <v>964000</v>
+        <v>1330000</v>
       </c>
       <c r="I18" s="4">
-        <v>68600000</v>
+        <v>25500000</v>
       </c>
       <c r="J18" s="2">
-        <v>18300000</v>
+        <v>6720000</v>
       </c>
       <c r="K18" s="4">
-        <v>19700000</v>
+        <v>9280000</v>
       </c>
       <c r="L18" s="4">
-        <v>14800000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
-        <v>137000</v>
+      <c r="B19" s="4">
+        <v>7530</v>
       </c>
       <c r="C19" s="2">
-        <v>6680000000</v>
+        <v>2480000000</v>
       </c>
       <c r="D19" s="2">
-        <v>325000000</v>
+        <v>143000000</v>
       </c>
       <c r="E19" s="2">
-        <v>708000000</v>
+        <v>365000000</v>
       </c>
       <c r="F19" s="2">
-        <v>1280000000</v>
+        <v>513000000</v>
       </c>
       <c r="G19" s="1">
         <v>19</v>
       </c>
-      <c r="H19" s="4">
-        <v>10400</v>
+      <c r="H19" s="2">
+        <v>21200</v>
       </c>
       <c r="I19" s="4">
-        <v>397000000</v>
+        <v>140000000</v>
       </c>
       <c r="J19" s="4">
-        <v>10600000</v>
+        <v>1680000</v>
       </c>
       <c r="K19" s="4">
-        <v>82500000</v>
+        <v>11900000</v>
       </c>
       <c r="L19" s="4">
-        <v>124000000</v>
+        <v>26400000</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1797,75 +1159,75 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C20" s="2">
-        <v>1750</v>
+        <v>1290</v>
       </c>
       <c r="D20" s="2">
-        <v>1120</v>
+        <v>726</v>
       </c>
       <c r="E20" s="2">
-        <v>986</v>
+        <v>750</v>
       </c>
       <c r="F20" s="2">
-        <v>358</v>
+        <v>214</v>
       </c>
       <c r="G20" s="1">
         <v>20</v>
       </c>
       <c r="H20" s="4">
-        <v>192</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I20" s="4">
-        <v>826</v>
+        <v>674</v>
       </c>
       <c r="J20" s="4">
-        <v>550</v>
+        <v>441</v>
       </c>
       <c r="K20" s="4">
-        <v>535</v>
+        <v>423</v>
       </c>
       <c r="L20" s="4">
-        <v>171</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
-        <v>350</v>
+      <c r="B21" s="4">
+        <v>271</v>
       </c>
       <c r="C21" s="2">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="D21" s="2">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="E21" s="2">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="F21" s="2">
-        <v>32</v>
+        <v>29.2</v>
       </c>
       <c r="G21" s="1">
         <v>21</v>
       </c>
-      <c r="H21" s="4">
-        <v>271</v>
+      <c r="H21" s="2">
+        <v>274</v>
       </c>
       <c r="I21" s="4">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="J21" s="4">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="K21" s="4">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L21" s="4">
-        <v>22.3</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1873,37 +1235,37 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="C22" s="2">
-        <v>5860</v>
+        <v>5710</v>
       </c>
       <c r="D22" s="2">
-        <v>4660</v>
+        <v>4060</v>
       </c>
       <c r="E22" s="2">
-        <v>4520</v>
-      </c>
-      <c r="F22" s="4">
-        <v>962</v>
+        <v>4010</v>
+      </c>
+      <c r="F22" s="2">
+        <v>953</v>
       </c>
       <c r="G22" s="1">
         <v>22</v>
       </c>
       <c r="H22" s="4">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="I22" s="4">
-        <v>5340</v>
+        <v>4600</v>
       </c>
       <c r="J22" s="4">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="K22" s="4">
-        <v>1510</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1870</v>
+        <v>440</v>
+      </c>
+      <c r="L22" s="4">
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1911,37 +1273,37 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>496</v>
+        <v>382</v>
       </c>
       <c r="C23" s="2">
-        <v>914</v>
+        <v>584</v>
       </c>
       <c r="D23" s="2">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="E23" s="2">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="F23" s="2">
-        <v>81.8</v>
+        <v>44.2</v>
       </c>
       <c r="G23" s="1">
         <v>23</v>
       </c>
       <c r="H23" s="4">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="I23" s="4">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="J23" s="4">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="K23" s="4">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="L23" s="4">
-        <v>23.6</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1949,37 +1311,37 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C24" s="2">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="D24" s="2">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="E24" s="2">
-        <v>793</v>
+        <v>721</v>
       </c>
       <c r="F24" s="2">
-        <v>97.5</v>
+        <v>75.2</v>
       </c>
       <c r="G24" s="1">
         <v>24</v>
       </c>
       <c r="H24" s="4">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I24" s="4">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="J24" s="4">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="K24" s="4">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="L24" s="4">
-        <v>51.2</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1987,75 +1349,75 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C25" s="2">
-        <v>1210</v>
+        <v>1230</v>
       </c>
       <c r="D25" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E25" s="2">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="F25" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G25" s="1">
         <v>25</v>
       </c>
       <c r="H25" s="4">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="I25" s="4">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="J25" s="4">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="K25" s="4">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="L25" s="4">
-        <v>42.9</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
-        <v>1250</v>
+      <c r="B26" s="2">
+        <v>1040</v>
       </c>
       <c r="C26" s="2">
-        <v>4590</v>
+        <v>4170</v>
       </c>
       <c r="D26" s="2">
-        <v>3460</v>
+        <v>2720</v>
       </c>
       <c r="E26" s="2">
-        <v>3290</v>
+        <v>2590</v>
       </c>
       <c r="F26" s="2">
-        <v>920</v>
+        <v>799</v>
       </c>
       <c r="G26" s="1">
         <v>26</v>
       </c>
-      <c r="H26" s="2">
-        <v>1870</v>
+      <c r="H26" s="4">
+        <v>865</v>
       </c>
       <c r="I26" s="4">
-        <v>2650</v>
+        <v>2470</v>
       </c>
       <c r="J26" s="4">
-        <v>2310</v>
+        <v>2120</v>
       </c>
       <c r="K26" s="4">
-        <v>2290</v>
+        <v>2090</v>
       </c>
       <c r="L26" s="4">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2063,37 +1425,37 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C27" s="2">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="D27" s="2">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="E27" s="2">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="F27" s="2">
-        <v>44.8</v>
+        <v>31.5</v>
       </c>
       <c r="G27" s="1">
         <v>27</v>
       </c>
       <c r="H27" s="4">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="I27" s="4">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="J27" s="4">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="K27" s="4">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="L27" s="4">
-        <v>16.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2101,37 +1463,37 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C28" s="2">
-        <v>1500</v>
+        <v>1920</v>
       </c>
       <c r="D28" s="2">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="E28" s="2">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="F28" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G28" s="1">
         <v>28</v>
       </c>
       <c r="H28" s="4">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="I28" s="4">
-        <v>889</v>
+        <v>671</v>
       </c>
       <c r="J28" s="4">
-        <v>620</v>
+        <v>592</v>
       </c>
       <c r="K28" s="4">
-        <v>644</v>
+        <v>592</v>
       </c>
       <c r="L28" s="4">
-        <v>78.4</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2139,84 +1501,78 @@
         <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>830</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1850</v>
+        <v>606</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1740</v>
       </c>
       <c r="D29" s="4">
-        <v>1280</v>
+        <v>1100</v>
       </c>
       <c r="E29" s="4">
-        <v>1300</v>
-      </c>
-      <c r="F29" s="4">
-        <v>257</v>
+        <v>1100</v>
+      </c>
+      <c r="F29" s="2">
+        <v>271</v>
       </c>
       <c r="G29" s="1">
         <v>29</v>
       </c>
       <c r="H29" s="2">
-        <v>890</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2660</v>
+        <v>643</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1720</v>
       </c>
       <c r="J29" s="2">
-        <v>1470</v>
+        <v>1210</v>
       </c>
       <c r="K29" s="2">
-        <v>1500</v>
-      </c>
-      <c r="L29" s="2">
-        <v>443</v>
+        <v>1170</v>
+      </c>
+      <c r="L29" s="4">
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
-        <v>279000</v>
+      <c r="B30" s="4">
+        <v>21700</v>
       </c>
       <c r="C30" s="2">
-        <v>226000000</v>
+        <v>533000000</v>
       </c>
       <c r="D30" s="2">
-        <v>52900000</v>
+        <v>48100000</v>
       </c>
       <c r="E30" s="2">
-        <v>66800000</v>
+        <v>80800000</v>
       </c>
       <c r="F30" s="2">
-        <v>65300000</v>
+        <v>97600000</v>
       </c>
       <c r="G30" s="1">
         <v>30</v>
       </c>
-      <c r="H30" s="4">
-        <v>214000</v>
+      <c r="H30" s="2">
+        <v>42700</v>
       </c>
       <c r="I30" s="4">
-        <v>65400000</v>
+        <v>36100000</v>
       </c>
       <c r="J30" s="4">
-        <v>2790000</v>
+        <v>723000</v>
       </c>
       <c r="K30" s="4">
-        <v>13300000</v>
+        <v>2540000</v>
       </c>
       <c r="L30" s="4">
-        <v>20300000</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7">
-      <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>6070000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>